--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/DELAWARE_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/DELAWARE_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D521"/>
+  <dimension ref="A1:D515"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -464,7 +464,7 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="8">
@@ -508,7 +508,7 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="11">
@@ -552,7 +552,7 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="14">
@@ -583,7 +583,7 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="16">
@@ -602,7 +602,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C17">
@@ -635,7 +635,7 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="20">
@@ -700,7 +700,7 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="25">
@@ -752,7 +752,7 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="29">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C33">
@@ -895,7 +895,7 @@
         <v>20</v>
       </c>
       <c r="D39">
-        <v>0.009237875288683603</v>
+        <v>0.009237875288683604</v>
       </c>
     </row>
     <row r="40">
@@ -1043,7 +1043,7 @@
         <v>2</v>
       </c>
       <c r="D50">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="51">
@@ -1074,7 +1074,7 @@
         <v>2</v>
       </c>
       <c r="D52">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="53">
@@ -1119,7 +1119,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1176,7 +1176,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C60">
@@ -1274,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="D67">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="68">
@@ -1287,7 +1287,7 @@
         <v>2</v>
       </c>
       <c r="D68">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="69">
@@ -1300,7 +1300,7 @@
         <v>2</v>
       </c>
       <c r="D69">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="70">
@@ -1326,7 +1326,7 @@
         <v>2</v>
       </c>
       <c r="D71">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="72">
@@ -1383,7 +1383,7 @@
         <v>2</v>
       </c>
       <c r="D75">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="76">
@@ -1396,33 +1396,33 @@
         <v>2</v>
       </c>
       <c r="D76">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C77">
         <v>2</v>
       </c>
       <c r="D77">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C78">
         <v>2</v>
       </c>
       <c r="D78">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="79">
@@ -1441,12 +1441,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C80">
@@ -1472,7 +1472,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C82">
@@ -1485,7 +1485,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C83">
@@ -1531,7 +1531,7 @@
         <v>2</v>
       </c>
       <c r="D86">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="87">
@@ -1557,7 +1557,7 @@
         <v>2</v>
       </c>
       <c r="D88">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="89">
@@ -1622,13 +1622,13 @@
         <v>2</v>
       </c>
       <c r="D93">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C94">
@@ -1654,7 +1654,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C96">
@@ -1706,7 +1706,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C100">
@@ -1719,7 +1719,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C101">
@@ -1752,13 +1752,13 @@
         <v>2</v>
       </c>
       <c r="D103">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C104">
@@ -1791,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="D106">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="107">
@@ -1849,7 +1849,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C111">
@@ -1862,7 +1862,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C112">
@@ -1875,14 +1875,14 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C113">
         <v>2</v>
       </c>
       <c r="D113">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="114">
@@ -1947,7 +1947,7 @@
         <v>2</v>
       </c>
       <c r="D118">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="119">
@@ -1979,7 +1979,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C121">
@@ -2044,7 +2044,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C126">
@@ -2083,20 +2083,20 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
       <c r="D129">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C130">
@@ -2109,7 +2109,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C131">
@@ -2199,7 +2199,7 @@
         <v>2</v>
       </c>
       <c r="D137">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="138">
@@ -2218,7 +2218,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C139">
@@ -2251,7 +2251,7 @@
         <v>2</v>
       </c>
       <c r="D141">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="142">
@@ -2355,13 +2355,13 @@
         <v>2</v>
       </c>
       <c r="D149">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C150">
@@ -2387,14 +2387,14 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C152">
         <v>2</v>
       </c>
       <c r="D152">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="153">
@@ -2444,7 +2444,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C156">
@@ -2477,13 +2477,13 @@
         <v>2</v>
       </c>
       <c r="D158">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C159">
@@ -2496,7 +2496,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C160">
@@ -2522,7 +2522,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C162">
@@ -2535,7 +2535,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C163">
@@ -2561,20 +2561,20 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C165">
         <v>2</v>
       </c>
       <c r="D165">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C166">
@@ -2613,7 +2613,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C169">
@@ -2626,14 +2626,14 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C170">
         <v>2</v>
       </c>
       <c r="D170">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="171">
@@ -2665,7 +2665,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C173">
@@ -2678,7 +2678,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C174">
@@ -2730,7 +2730,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C178">
@@ -2828,13 +2828,13 @@
         <v>2</v>
       </c>
       <c r="D185">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C186">
@@ -2847,7 +2847,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C187">
@@ -2873,7 +2873,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C189">
@@ -2938,14 +2938,14 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C194">
         <v>2</v>
       </c>
       <c r="D194">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="195">
@@ -2989,7 +2989,7 @@
         <v>2</v>
       </c>
       <c r="D197">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="198">
@@ -3008,14 +3008,14 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C199">
         <v>2</v>
       </c>
       <c r="D199">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="200">
@@ -3047,14 +3047,14 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C202">
         <v>2</v>
       </c>
       <c r="D202">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="203">
@@ -3086,7 +3086,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C205">
@@ -3106,7 +3106,7 @@
         <v>2</v>
       </c>
       <c r="D206">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="207">
@@ -3138,14 +3138,14 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C209">
         <v>2</v>
       </c>
       <c r="D209">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="210">
@@ -3171,13 +3171,13 @@
         <v>2</v>
       </c>
       <c r="D211">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C212">
@@ -3190,7 +3190,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C213">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C215">
@@ -3234,7 +3234,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C216">
@@ -3267,13 +3267,13 @@
         <v>2</v>
       </c>
       <c r="D218">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C219">
@@ -3312,7 +3312,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C222">
@@ -3364,14 +3364,14 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C226">
         <v>2</v>
       </c>
       <c r="D226">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="227">
@@ -3403,7 +3403,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C229">
@@ -3449,13 +3449,13 @@
         <v>2</v>
       </c>
       <c r="D232">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C233">
@@ -3545,7 +3545,7 @@
         <v>2</v>
       </c>
       <c r="D239">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="240">
@@ -3558,7 +3558,7 @@
         <v>2</v>
       </c>
       <c r="D240">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="241">
@@ -3662,7 +3662,7 @@
         <v>2</v>
       </c>
       <c r="D248">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="249">
@@ -3727,7 +3727,7 @@
         <v>2</v>
       </c>
       <c r="D253">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="254">
@@ -3766,7 +3766,7 @@
         <v>2</v>
       </c>
       <c r="D256">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="257">
@@ -3779,7 +3779,7 @@
         <v>2</v>
       </c>
       <c r="D257">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="258">
@@ -3792,7 +3792,7 @@
         <v>2</v>
       </c>
       <c r="D258">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="259">
@@ -3896,7 +3896,7 @@
         <v>2</v>
       </c>
       <c r="D266">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="267">
@@ -3909,7 +3909,7 @@
         <v>2</v>
       </c>
       <c r="D267">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="268">
@@ -4018,7 +4018,7 @@
         <v>2</v>
       </c>
       <c r="D275">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="276">
@@ -4031,7 +4031,7 @@
         <v>2</v>
       </c>
       <c r="D276">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="277">
@@ -4083,7 +4083,7 @@
         <v>2</v>
       </c>
       <c r="D280">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="281">
@@ -4109,13 +4109,13 @@
         <v>20</v>
       </c>
       <c r="D282">
-        <v>0.009237875288683603</v>
+        <v>0.009237875288683604</v>
       </c>
     </row>
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C283">
@@ -4167,7 +4167,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C287">
@@ -4187,7 +4187,7 @@
         <v>2</v>
       </c>
       <c r="D288">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="289">
@@ -4270,7 +4270,7 @@
         <v>2</v>
       </c>
       <c r="D294">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="295">
@@ -4289,7 +4289,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C296">
@@ -4322,7 +4322,7 @@
         <v>2</v>
       </c>
       <c r="D298">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="299">
@@ -4335,7 +4335,7 @@
         <v>2</v>
       </c>
       <c r="D299">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="300">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C304">
@@ -4423,13 +4423,13 @@
         <v>2</v>
       </c>
       <c r="D305">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C306">
@@ -4442,7 +4442,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C307">
@@ -4507,7 +4507,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C312">
@@ -4527,7 +4527,7 @@
         <v>2</v>
       </c>
       <c r="D313">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="314">
@@ -4546,7 +4546,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C315">
@@ -4559,33 +4559,33 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C316">
         <v>2</v>
       </c>
       <c r="D316">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C317">
         <v>2</v>
       </c>
       <c r="D317">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C318">
@@ -4611,7 +4611,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C320">
@@ -4631,7 +4631,7 @@
         <v>2</v>
       </c>
       <c r="D321">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="322">
@@ -4735,7 +4735,7 @@
         <v>2</v>
       </c>
       <c r="D329">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="330">
@@ -4748,7 +4748,7 @@
         <v>2</v>
       </c>
       <c r="D330">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="331">
@@ -4774,7 +4774,7 @@
         <v>2</v>
       </c>
       <c r="D332">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="333">
@@ -4787,7 +4787,7 @@
         <v>2</v>
       </c>
       <c r="D333">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="334">
@@ -4865,7 +4865,7 @@
         <v>2</v>
       </c>
       <c r="D339">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="340">
@@ -4891,20 +4891,20 @@
         <v>2</v>
       </c>
       <c r="D341">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C342">
         <v>2</v>
       </c>
       <c r="D342">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="343">
@@ -4923,7 +4923,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C344">
@@ -4974,7 +4974,7 @@
         <v>2</v>
       </c>
       <c r="D347">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="348">
@@ -5143,7 +5143,7 @@
         <v>2</v>
       </c>
       <c r="D360">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="361">
@@ -5175,7 +5175,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C363">
@@ -5221,7 +5221,7 @@
         <v>2</v>
       </c>
       <c r="D366">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="367">
@@ -5266,7 +5266,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C370">
@@ -5279,14 +5279,14 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C371">
         <v>2</v>
       </c>
       <c r="D371">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="372">
@@ -5312,13 +5312,13 @@
         <v>2</v>
       </c>
       <c r="D373">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C374">
@@ -5344,14 +5344,14 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C376">
         <v>2</v>
       </c>
       <c r="D376">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="377">
@@ -5383,7 +5383,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C379">
@@ -5461,7 +5461,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C385">
@@ -5500,7 +5500,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C388">
@@ -5533,20 +5533,20 @@
         <v>2</v>
       </c>
       <c r="D390">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C391">
         <v>2</v>
       </c>
       <c r="D391">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="392">
@@ -5578,7 +5578,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C394">
@@ -5591,7 +5591,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C395">
@@ -5630,7 +5630,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C398">
@@ -5676,7 +5676,7 @@
         <v>2</v>
       </c>
       <c r="D401">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="402">
@@ -5715,7 +5715,7 @@
         <v>2</v>
       </c>
       <c r="D404">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="405">
@@ -5767,7 +5767,7 @@
         <v>2</v>
       </c>
       <c r="D408">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="409">
@@ -5780,7 +5780,7 @@
         <v>2</v>
       </c>
       <c r="D409">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="410">
@@ -5804,7 +5804,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C411">
@@ -5817,7 +5817,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C412">
@@ -5837,13 +5837,13 @@
         <v>2</v>
       </c>
       <c r="D413">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C414">
@@ -5856,7 +5856,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C415">
@@ -5931,7 +5931,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C420">
@@ -6009,7 +6009,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C426">
@@ -6061,7 +6061,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C430">
@@ -6156,7 +6156,7 @@
         <v>2</v>
       </c>
       <c r="D436">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="437">
@@ -6309,13 +6309,13 @@
         <v>2</v>
       </c>
       <c r="D447">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C448">
@@ -6483,13 +6483,13 @@
         <v>2</v>
       </c>
       <c r="D460">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C461">
@@ -6522,7 +6522,7 @@
         <v>2</v>
       </c>
       <c r="D463">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="464">
@@ -6554,7 +6554,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C466">
@@ -6619,14 +6619,14 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C471">
         <v>2</v>
       </c>
       <c r="D471">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="472">
@@ -6645,7 +6645,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C473">
@@ -6678,7 +6678,7 @@
         <v>2</v>
       </c>
       <c r="D475">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="476">
@@ -6749,7 +6749,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C481">
@@ -6808,7 +6808,7 @@
         <v>2</v>
       </c>
       <c r="D485">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="486">
@@ -6834,13 +6834,13 @@
         <v>2</v>
       </c>
       <c r="D487">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C488">
@@ -6866,7 +6866,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C490">
@@ -6886,7 +6886,7 @@
         <v>2</v>
       </c>
       <c r="D491">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="492">
@@ -6912,13 +6912,13 @@
         <v>2</v>
       </c>
       <c r="D493">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C494">
@@ -6951,7 +6951,7 @@
         <v>2</v>
       </c>
       <c r="D496">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="497">
@@ -7029,7 +7029,7 @@
         <v>2</v>
       </c>
       <c r="D502">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="503">
@@ -7169,7 +7169,7 @@
         <v>2</v>
       </c>
       <c r="D512">
-        <v>0.0009237875288683603</v>
+        <v>0.0009237875288683604</v>
       </c>
     </row>
     <row r="513">
@@ -7195,7 +7195,7 @@
         <v>20</v>
       </c>
       <c r="D514">
-        <v>0.009237875288683603</v>
+        <v>0.009237875288683604</v>
       </c>
     </row>
     <row r="515">
@@ -7209,41 +7209,6 @@
       </c>
       <c r="D515">
         <v>1</v>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/DELAWARE_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/DELAWARE_2015.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Los Cabos</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Escárcega</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Palizada</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Amatán</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Amatenango De La Frontera</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Angel Albino Corzo</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Arriaga</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Bella Vista</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Cacahoatán</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Chamula</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Chenalhó</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Cintalapa</t>
@@ -704,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -717,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Jiquipilas</t>
@@ -769,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -782,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -795,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -808,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -821,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -834,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -847,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -860,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -873,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Suchiate</t>
@@ -886,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -899,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Tecpatán</t>
@@ -912,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -925,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Tuzantán</t>
@@ -938,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Unión Juárez</t>
@@ -951,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Total</t>
@@ -982,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -995,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1008,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -1021,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -1034,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Saucillo</t>
@@ -1047,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1078,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>San Pedro</t>
@@ -1091,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Viesca</t>
@@ -1104,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1135,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -1148,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -1161,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -1174,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Cuajimalpa De Morelos</t>
@@ -1187,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1200,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1213,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1226,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1239,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>La Magdalena Contreras</t>
@@ -1252,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1265,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Milpa Alta</t>
@@ -1278,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -1291,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -1304,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1317,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -1330,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1361,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Gómez Palacio</t>
@@ -1374,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Mapimí</t>
@@ -1387,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -1400,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Pánuco De Coronado</t>
@@ -1413,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>San Pedro Del Gallo</t>
@@ -1426,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1457,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Aculco</t>
@@ -1470,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Almoloya De Alquisiras</t>
@@ -1483,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Almoloya De Juárez</t>
@@ -1496,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Amanalco</t>
@@ -1509,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Amatepec</t>
@@ -1522,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Amecameca</t>
@@ -1535,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Atizapán</t>
@@ -1548,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Atlacomulco</t>
@@ -1561,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Atlautla</t>
@@ -1574,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Calimaya</t>
@@ -1587,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -1600,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Chicoloapan</t>
@@ -1613,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Chimalhuacán</t>
@@ -1626,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Coacalco De Berriozábal</t>
@@ -1639,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Coatepec Harinas</t>
@@ -1652,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -1665,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>El Oro</t>
@@ -1678,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Hueypoxtla</t>
@@ -1691,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Ixtapaluca</t>
@@ -1704,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -1717,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Ixtapan Del Oro</t>
@@ -1730,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -1743,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Malinalco</t>
@@ -1756,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -1769,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -1782,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Ocoyoacac</t>
@@ -1795,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Ocuilan</t>
@@ -1808,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Otzoloapan</t>
@@ -1821,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Otzolotepec</t>
@@ -1834,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Ozumba</t>
@@ -1847,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -1860,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>San Martín De Las Pirámides</t>
@@ -1873,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>San Simón De Guerrero</t>
@@ -1886,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Santo Tomás</t>
@@ -1899,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -1912,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -1925,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Temascalcingo</t>
@@ -1938,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Temascaltepec</t>
@@ -1951,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Temoaya</t>
@@ -1964,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -1977,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Tenango Del Valle</t>
@@ -1990,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Tequixquiac</t>
@@ -2003,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Texcaltitlán</t>
@@ -2016,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -2029,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Tlalmanalco</t>
@@ -2042,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -2055,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -2068,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Tultitlán</t>
@@ -2081,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Valle De Bravo</t>
@@ -2094,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Valle De Chalco Solidaridad</t>
@@ -2107,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Villa Del Carbón</t>
@@ -2120,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -2133,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Zacualpan</t>
@@ -2146,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Zinacantepec</t>
@@ -2159,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Zumpahuacán</t>
@@ -2172,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2203,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Acámbaro</t>
@@ -2216,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Apaseo El Grande</t>
@@ -2229,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -2242,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -2255,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -2268,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Jerécuaro</t>
@@ -2281,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>León</t>
@@ -2294,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -2307,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Moroleón</t>
@@ -2320,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -2333,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -2346,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -2359,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -2372,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Uriangato</t>
@@ -2385,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -2398,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -2411,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -2424,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2455,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -2468,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -2481,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -2494,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -2507,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -2520,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -2533,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -2546,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Copalillo</t>
@@ -2559,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -2572,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -2585,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -2598,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Cualác</t>
@@ -2611,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Cuetzala Del Progreso</t>
@@ -2624,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Cutzamala De Pinzón</t>
@@ -2637,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Eduardo Neri</t>
@@ -2650,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>General Canuto A. Neri</t>
@@ -2663,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -2676,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -2689,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Igualapa</t>
@@ -2702,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>José Azueta</t>
@@ -2715,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -2728,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>La Unión De Isidoro Montes De Oca</t>
@@ -2741,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -2754,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Olinalá</t>
@@ -2767,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -2780,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Pilcaya</t>
@@ -2793,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Pungarabato</t>
@@ -2806,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -2819,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>San Miguel Totolapan</t>
@@ -2832,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Taxco De Alarcón</t>
@@ -2845,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -2858,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Teloloapan</t>
@@ -2871,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Tepecoacuilco De Trujano</t>
@@ -2884,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Tetipac</t>
@@ -2897,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Tlacoachistlahuaca</t>
@@ -2910,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Tlacoapa</t>
@@ -2923,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Tlalchapa</t>
@@ -2936,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -2949,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Xochistlahuaca</t>
@@ -2962,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2993,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Ajacuba</t>
@@ -3006,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Atotonilco El Grande</t>
@@ -3019,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Chapulhuacán</t>
@@ -3032,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Huehuetla</t>
@@ -3045,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Huejutla De Reyes</t>
@@ -3058,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -3071,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Metepec</t>
@@ -3084,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -3097,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>San Felipe Orizatlán</t>
@@ -3110,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>San Salvador</t>
@@ -3123,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Tecozautla</t>
@@ -3136,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Tepehuacán De Guerrero</t>
@@ -3149,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Tizayuca</t>
@@ -3162,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Tlanchinol</t>
@@ -3175,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Tula De Allende</t>
@@ -3188,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -3201,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3232,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Atotonilco El Alto</t>
@@ -3245,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Cuquío</t>
@@ -3258,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>El Salto</t>
@@ -3271,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Encarnación De Díaz</t>
@@ -3284,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -3297,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Jalostotitlán</t>
@@ -3310,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -3323,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -3336,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -3349,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Quitupan</t>
@@ -3362,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>San Martín De Bolaños</t>
@@ -3375,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -3388,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -3401,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Tlajomulco De Zúñiga</t>
@@ -3414,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>San Pedro Tlaquepaque</t>
@@ -3427,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -3440,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -3453,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Zapotlán El Grande</t>
@@ -3466,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Zapotlanejo</t>
@@ -3479,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3510,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Angangueo</t>
@@ -3523,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Apatzingán</t>
@@ -3536,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Ario</t>
@@ -3549,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Arteaga</t>
@@ -3562,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Carácuaro</t>
@@ -3575,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Chavinda</t>
@@ -3588,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Coahuayana</t>
@@ -3601,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Coeneo</t>
@@ -3614,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Cuitzeo</t>
@@ -3627,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Erongarícuaro</t>
@@ -3640,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Huetamo</t>
@@ -3653,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>La Huacana</t>
@@ -3666,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -3679,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -3692,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -3705,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -3718,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Múgica</t>
@@ -3731,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Nahuatzen</t>
@@ -3744,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Nocupétaro</t>
@@ -3757,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Nuevo Urecho</t>
@@ -3770,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -3783,6 +4988,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>Pátzcuaro</t>
@@ -3796,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -3809,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>San Lucas</t>
@@ -3822,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Tacámbaro</t>
@@ -3835,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Tangamandapio</t>
@@ -3848,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Taretan</t>
@@ -3861,6 +5096,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>Tingüindín</t>
@@ -3874,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Tumbiscatío</t>
@@ -3887,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Turicato</t>
@@ -3900,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -3913,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Tzintzuntzan</t>
@@ -3926,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -3939,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Yurécuaro</t>
@@ -3952,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -3965,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -3978,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -3991,6 +5276,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4022,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Axochiapan</t>
@@ -4035,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Ayala</t>
@@ -4048,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -4061,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -4074,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -4087,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>Huitzilac</t>
@@ -4100,6 +5420,11 @@
       </c>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>Jojutla</t>
@@ -4113,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>Puente De Ixtla</t>
@@ -4126,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>Temixco</t>
@@ -4139,6 +5474,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>Tepalcingo</t>
@@ -4152,6 +5492,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>Tetecala</t>
@@ -4165,6 +5510,11 @@
       </c>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>Tlaltizapán De Zapata</t>
@@ -4178,6 +5528,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -4191,6 +5546,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>Xochitepec</t>
@@ -4204,6 +5564,11 @@
       </c>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -4217,6 +5582,11 @@
       </c>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>Yecapixtla</t>
@@ -4230,6 +5600,11 @@
       </c>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>Zacatepec</t>
@@ -4243,6 +5618,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4274,6 +5654,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Compostela</t>
@@ -4287,6 +5672,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Ixtlán Del Río</t>
@@ -4300,6 +5690,11 @@
       </c>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>Rosamorada</t>
@@ -4313,6 +5708,11 @@
       </c>
     </row>
     <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -4326,6 +5726,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -4339,6 +5744,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4370,6 +5780,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -4383,6 +5798,11 @@
       </c>
     </row>
     <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4414,6 +5834,11 @@
       </c>
     </row>
     <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>Candelaria Loxicha</t>
@@ -4427,6 +5852,11 @@
       </c>
     </row>
     <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Huajuapan De León</t>
@@ -4440,6 +5870,11 @@
       </c>
     </row>
     <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>Ixtlán De Juárez</t>
@@ -4453,6 +5888,11 @@
       </c>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>La Compañía</t>
@@ -4466,6 +5906,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>La Reforma</t>
@@ -4479,6 +5924,11 @@
       </c>
     </row>
     <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>Loma Bonita</t>
@@ -4492,6 +5942,11 @@
       </c>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>Magdalena Tequisistlán</t>
@@ -4505,6 +5960,11 @@
       </c>
     </row>
     <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Mariscala De Juárez</t>
@@ -4518,6 +5978,11 @@
       </c>
     </row>
     <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B313" t="inlineStr">
         <is>
           <t>Matías Romero Avendaño</t>
@@ -4531,6 +5996,11 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Mesones Hidalgo</t>
@@ -4544,6 +6014,11 @@
       </c>
     </row>
     <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B315" t="inlineStr">
         <is>
           <t>Miahuatlán De Porfirio Díaz</t>
@@ -4557,6 +6032,11 @@
       </c>
     </row>
     <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B316" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -4570,6 +6050,11 @@
       </c>
     </row>
     <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B317" t="inlineStr">
         <is>
           <t>Ocotlán De Morelos</t>
@@ -4583,6 +6068,11 @@
       </c>
     </row>
     <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B318" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -4596,6 +6086,11 @@
       </c>
     </row>
     <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B319" t="inlineStr">
         <is>
           <t>Reyes Etla</t>
@@ -4609,6 +6104,11 @@
       </c>
     </row>
     <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B320" t="inlineStr">
         <is>
           <t>San Felipe Jalapa De Díaz</t>
@@ -4622,6 +6122,11 @@
       </c>
     </row>
     <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B321" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -4635,6 +6140,11 @@
       </c>
     </row>
     <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B322" t="inlineStr">
         <is>
           <t>San Juan Bautista Valle Nacional</t>
@@ -4648,6 +6158,11 @@
       </c>
     </row>
     <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B323" t="inlineStr">
         <is>
           <t>San Juan Cacahuatepec</t>
@@ -4661,6 +6176,11 @@
       </c>
     </row>
     <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B324" t="inlineStr">
         <is>
           <t>San Juan Mazatlán</t>
@@ -4674,6 +6194,11 @@
       </c>
     </row>
     <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B325" t="inlineStr">
         <is>
           <t>San Martín Zacatepec</t>
@@ -4687,6 +6212,11 @@
       </c>
     </row>
     <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>San Miguel Panixtlahuaca</t>
@@ -4700,6 +6230,11 @@
       </c>
     </row>
     <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
           <t>San Miguel Soyaltepec</t>
@@ -4713,6 +6248,11 @@
       </c>
     </row>
     <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B328" t="inlineStr">
         <is>
           <t>San Miguel Tlacotepec</t>
@@ -4726,6 +6266,11 @@
       </c>
     </row>
     <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B329" t="inlineStr">
         <is>
           <t>San Pablo Huitzo</t>
@@ -4739,6 +6284,11 @@
       </c>
     </row>
     <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B330" t="inlineStr">
         <is>
           <t>San Pedro Amuzgos</t>
@@ -4752,6 +6302,11 @@
       </c>
     </row>
     <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B331" t="inlineStr">
         <is>
           <t>San Sebastián Abasolo</t>
@@ -4765,6 +6320,11 @@
       </c>
     </row>
     <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B332" t="inlineStr">
         <is>
           <t>Santa María Jacatepec</t>
@@ -4778,6 +6338,11 @@
       </c>
     </row>
     <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B333" t="inlineStr">
         <is>
           <t>Santa María Tonameca</t>
@@ -4791,6 +6356,11 @@
       </c>
     </row>
     <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
           <t>Santiago Cacaloxtepec</t>
@@ -4804,6 +6374,11 @@
       </c>
     </row>
     <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B335" t="inlineStr">
         <is>
           <t>Santiago Camotlán</t>
@@ -4817,6 +6392,11 @@
       </c>
     </row>
     <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B336" t="inlineStr">
         <is>
           <t>Santiago Jocotepec</t>
@@ -4830,6 +6410,11 @@
       </c>
     </row>
     <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -4843,6 +6428,11 @@
       </c>
     </row>
     <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B338" t="inlineStr">
         <is>
           <t>Santiago Pinotepa Nacional</t>
@@ -4856,6 +6446,11 @@
       </c>
     </row>
     <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B339" t="inlineStr">
         <is>
           <t>Santiago Tamazola</t>
@@ -4869,6 +6464,11 @@
       </c>
     </row>
     <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B340" t="inlineStr">
         <is>
           <t>Santo Domingo Tonalá</t>
@@ -4882,6 +6482,11 @@
       </c>
     </row>
     <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>Silacayoápam</t>
@@ -4895,6 +6500,11 @@
       </c>
     </row>
     <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B342" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -4908,6 +6518,11 @@
       </c>
     </row>
     <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B343" t="inlineStr">
         <is>
           <t>Valerio Trujano</t>
@@ -4921,6 +6536,11 @@
       </c>
     </row>
     <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B344" t="inlineStr">
         <is>
           <t>Villa De Tututepec De Melchor Ocampo</t>
@@ -4934,6 +6554,11 @@
       </c>
     </row>
     <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B345" t="inlineStr">
         <is>
           <t>Zapotitlán Lagunas</t>
@@ -4947,6 +6572,11 @@
       </c>
     </row>
     <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B346" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4978,6 +6608,11 @@
       </c>
     </row>
     <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B348" t="inlineStr">
         <is>
           <t>Acatlán</t>
@@ -4991,6 +6626,11 @@
       </c>
     </row>
     <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B349" t="inlineStr">
         <is>
           <t>Ahuehuetitla</t>
@@ -5004,6 +6644,11 @@
       </c>
     </row>
     <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B350" t="inlineStr">
         <is>
           <t>Ajalpan</t>
@@ -5017,6 +6662,11 @@
       </c>
     </row>
     <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B351" t="inlineStr">
         <is>
           <t>Aljojuca</t>
@@ -5030,6 +6680,11 @@
       </c>
     </row>
     <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B352" t="inlineStr">
         <is>
           <t>Atexcal</t>
@@ -5043,6 +6698,11 @@
       </c>
     </row>
     <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B353" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -5056,6 +6716,11 @@
       </c>
     </row>
     <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
           <t>Calpan</t>
@@ -5069,6 +6734,11 @@
       </c>
     </row>
     <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B355" t="inlineStr">
         <is>
           <t>Chapulco</t>
@@ -5082,6 +6752,11 @@
       </c>
     </row>
     <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B356" t="inlineStr">
         <is>
           <t>Chiautla</t>
@@ -5095,6 +6770,11 @@
       </c>
     </row>
     <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B357" t="inlineStr">
         <is>
           <t>Chichiquila</t>
@@ -5108,6 +6788,11 @@
       </c>
     </row>
     <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B358" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -5121,6 +6806,11 @@
       </c>
     </row>
     <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B359" t="inlineStr">
         <is>
           <t>Chilchotla</t>
@@ -5134,6 +6824,11 @@
       </c>
     </row>
     <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B360" t="inlineStr">
         <is>
           <t>Chinantla</t>
@@ -5147,6 +6842,11 @@
       </c>
     </row>
     <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B361" t="inlineStr">
         <is>
           <t>Coxcatlán</t>
@@ -5160,6 +6860,11 @@
       </c>
     </row>
     <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B362" t="inlineStr">
         <is>
           <t>Cuautlancingo</t>
@@ -5173,6 +6878,11 @@
       </c>
     </row>
     <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B363" t="inlineStr">
         <is>
           <t>Cuetzalan Del Progreso</t>
@@ -5186,6 +6896,11 @@
       </c>
     </row>
     <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B364" t="inlineStr">
         <is>
           <t>Cuyoaco</t>
@@ -5199,6 +6914,11 @@
       </c>
     </row>
     <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B365" t="inlineStr">
         <is>
           <t>Domingo Arenas</t>
@@ -5212,6 +6932,11 @@
       </c>
     </row>
     <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B366" t="inlineStr">
         <is>
           <t>Epatlán</t>
@@ -5225,6 +6950,11 @@
       </c>
     </row>
     <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B367" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -5238,6 +6968,11 @@
       </c>
     </row>
     <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B368" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -5251,6 +6986,11 @@
       </c>
     </row>
     <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B369" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -5264,6 +7004,11 @@
       </c>
     </row>
     <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B370" t="inlineStr">
         <is>
           <t>Huehuetlán El Chico</t>
@@ -5277,6 +7022,11 @@
       </c>
     </row>
     <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B371" t="inlineStr">
         <is>
           <t>Huehuetlán El Grande</t>
@@ -5290,6 +7040,11 @@
       </c>
     </row>
     <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B372" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -5303,6 +7058,11 @@
       </c>
     </row>
     <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B373" t="inlineStr">
         <is>
           <t>Ixtacamaxtitlán</t>
@@ -5316,6 +7076,11 @@
       </c>
     </row>
     <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B374" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -5329,6 +7094,11 @@
       </c>
     </row>
     <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B375" t="inlineStr">
         <is>
           <t>Libres</t>
@@ -5342,6 +7112,11 @@
       </c>
     </row>
     <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B376" t="inlineStr">
         <is>
           <t>Los Reyes De Juárez</t>
@@ -5355,6 +7130,11 @@
       </c>
     </row>
     <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B377" t="inlineStr">
         <is>
           <t>Nealtican</t>
@@ -5368,6 +7148,11 @@
       </c>
     </row>
     <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B378" t="inlineStr">
         <is>
           <t>Ocotepec</t>
@@ -5381,6 +7166,11 @@
       </c>
     </row>
     <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B379" t="inlineStr">
         <is>
           <t>Palmar De Bravo</t>
@@ -5394,6 +7184,11 @@
       </c>
     </row>
     <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B380" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -5407,6 +7202,11 @@
       </c>
     </row>
     <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B381" t="inlineStr">
         <is>
           <t>Quecholac</t>
@@ -5420,6 +7220,11 @@
       </c>
     </row>
     <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B382" t="inlineStr">
         <is>
           <t>San José Miahuatlán</t>
@@ -5433,6 +7238,11 @@
       </c>
     </row>
     <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B383" t="inlineStr">
         <is>
           <t>San Martín Texmelucan</t>
@@ -5446,6 +7256,11 @@
       </c>
     </row>
     <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B384" t="inlineStr">
         <is>
           <t>San Matías Tlalancaleca</t>
@@ -5459,6 +7274,11 @@
       </c>
     </row>
     <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B385" t="inlineStr">
         <is>
           <t>San Nicolás De Los Ranchos</t>
@@ -5472,6 +7292,11 @@
       </c>
     </row>
     <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B386" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -5485,6 +7310,11 @@
       </c>
     </row>
     <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B387" t="inlineStr">
         <is>
           <t>San Pedro Yeloixtlahuaca</t>
@@ -5498,6 +7328,11 @@
       </c>
     </row>
     <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B388" t="inlineStr">
         <is>
           <t>San Salvador El Verde</t>
@@ -5511,6 +7346,11 @@
       </c>
     </row>
     <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B389" t="inlineStr">
         <is>
           <t>San Sebastián Tlacotepec</t>
@@ -5524,6 +7364,11 @@
       </c>
     </row>
     <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B390" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -5537,6 +7382,11 @@
       </c>
     </row>
     <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B391" t="inlineStr">
         <is>
           <t>Tepatlaxco De Hidalgo</t>
@@ -5550,6 +7400,11 @@
       </c>
     </row>
     <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B392" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -5563,6 +7418,11 @@
       </c>
     </row>
     <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B393" t="inlineStr">
         <is>
           <t>Tepeojuma</t>
@@ -5576,6 +7436,11 @@
       </c>
     </row>
     <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B394" t="inlineStr">
         <is>
           <t>Tepexi De Rodríguez</t>
@@ -5589,6 +7454,11 @@
       </c>
     </row>
     <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B395" t="inlineStr">
         <is>
           <t>Tetela De Ocampo</t>
@@ -5602,6 +7472,11 @@
       </c>
     </row>
     <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B396" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -5615,6 +7490,11 @@
       </c>
     </row>
     <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B397" t="inlineStr">
         <is>
           <t>Tlachichuca</t>
@@ -5628,6 +7508,11 @@
       </c>
     </row>
     <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B398" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -5641,6 +7526,11 @@
       </c>
     </row>
     <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B399" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -5654,6 +7544,11 @@
       </c>
     </row>
     <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B400" t="inlineStr">
         <is>
           <t>Tlaltenango</t>
@@ -5667,6 +7562,11 @@
       </c>
     </row>
     <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B401" t="inlineStr">
         <is>
           <t>Tlatlauquitepec</t>
@@ -5680,6 +7580,11 @@
       </c>
     </row>
     <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B402" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -5693,6 +7598,11 @@
       </c>
     </row>
     <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B403" t="inlineStr">
         <is>
           <t>Tulcingo</t>
@@ -5706,6 +7616,11 @@
       </c>
     </row>
     <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B404" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -5719,6 +7634,11 @@
       </c>
     </row>
     <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B405" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -5732,6 +7652,11 @@
       </c>
     </row>
     <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B406" t="inlineStr">
         <is>
           <t>Yehualtepec</t>
@@ -5745,6 +7670,11 @@
       </c>
     </row>
     <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B407" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -5758,6 +7688,11 @@
       </c>
     </row>
     <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B408" t="inlineStr">
         <is>
           <t>Zautla</t>
@@ -5771,6 +7706,11 @@
       </c>
     </row>
     <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B409" t="inlineStr">
         <is>
           <t>Zoquitlán</t>
@@ -5784,6 +7724,11 @@
       </c>
     </row>
     <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B410" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5815,6 +7760,11 @@
       </c>
     </row>
     <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B412" t="inlineStr">
         <is>
           <t>Cadereyta De Montes</t>
@@ -5828,6 +7778,11 @@
       </c>
     </row>
     <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B413" t="inlineStr">
         <is>
           <t>Colón</t>
@@ -5841,6 +7796,11 @@
       </c>
     </row>
     <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B414" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -5854,6 +7814,11 @@
       </c>
     </row>
     <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B415" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -5867,6 +7832,11 @@
       </c>
     </row>
     <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B416" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5898,6 +7868,11 @@
       </c>
     </row>
     <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B418" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5929,6 +7904,11 @@
       </c>
     </row>
     <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B420" t="inlineStr">
         <is>
           <t>Ciudad Del Maíz</t>
@@ -5942,6 +7922,11 @@
       </c>
     </row>
     <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B421" t="inlineStr">
         <is>
           <t>Ciudad Fernández</t>
@@ -5955,6 +7940,11 @@
       </c>
     </row>
     <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B422" t="inlineStr">
         <is>
           <t>Ciudad Valles</t>
@@ -5968,6 +7958,11 @@
       </c>
     </row>
     <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B423" t="inlineStr">
         <is>
           <t>Lagunillas</t>
@@ -5981,6 +7976,11 @@
       </c>
     </row>
     <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B424" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -5994,6 +7994,11 @@
       </c>
     </row>
     <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B425" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -6007,6 +8012,11 @@
       </c>
     </row>
     <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B426" t="inlineStr">
         <is>
           <t>San Ciro De Acosta</t>
@@ -6020,6 +8030,11 @@
       </c>
     </row>
     <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B427" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -6033,6 +8048,11 @@
       </c>
     </row>
     <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B428" t="inlineStr">
         <is>
           <t>Tamasopo</t>
@@ -6046,6 +8066,11 @@
       </c>
     </row>
     <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B429" t="inlineStr">
         <is>
           <t>Tamazunchale</t>
@@ -6059,6 +8084,11 @@
       </c>
     </row>
     <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B430" t="inlineStr">
         <is>
           <t>Villa De Arista</t>
@@ -6072,6 +8102,11 @@
       </c>
     </row>
     <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B431" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6103,6 +8138,11 @@
       </c>
     </row>
     <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B433" t="inlineStr">
         <is>
           <t>Navolato</t>
@@ -6116,6 +8156,11 @@
       </c>
     </row>
     <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B434" t="inlineStr">
         <is>
           <t>Sinaloa</t>
@@ -6129,6 +8174,11 @@
       </c>
     </row>
     <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B435" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6160,6 +8210,11 @@
       </c>
     </row>
     <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B437" t="inlineStr">
         <is>
           <t>Centro</t>
@@ -6173,6 +8228,11 @@
       </c>
     </row>
     <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B438" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -6186,6 +8246,11 @@
       </c>
     </row>
     <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B439" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6217,6 +8282,11 @@
       </c>
     </row>
     <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B441" t="inlineStr">
         <is>
           <t>Padilla</t>
@@ -6230,6 +8300,11 @@
       </c>
     </row>
     <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B442" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -6243,6 +8318,11 @@
       </c>
     </row>
     <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B443" t="inlineStr">
         <is>
           <t>Río Bravo</t>
@@ -6256,6 +8336,11 @@
       </c>
     </row>
     <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B444" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6287,6 +8372,11 @@
       </c>
     </row>
     <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B446" t="inlineStr">
         <is>
           <t>Chiautempan</t>
@@ -6300,6 +8390,11 @@
       </c>
     </row>
     <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B447" t="inlineStr">
         <is>
           <t>Hueyotlipan</t>
@@ -6313,6 +8408,11 @@
       </c>
     </row>
     <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B448" t="inlineStr">
         <is>
           <t>Nanacamilpa De Mariano Arista</t>
@@ -6326,6 +8426,11 @@
       </c>
     </row>
     <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B449" t="inlineStr">
         <is>
           <t>Natívitas</t>
@@ -6339,6 +8444,11 @@
       </c>
     </row>
     <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B450" t="inlineStr">
         <is>
           <t>Panotla</t>
@@ -6352,6 +8462,11 @@
       </c>
     </row>
     <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B451" t="inlineStr">
         <is>
           <t>San Lucas Tecopilco</t>
@@ -6365,6 +8480,11 @@
       </c>
     </row>
     <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B452" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -6378,6 +8498,11 @@
       </c>
     </row>
     <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B453" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -6391,6 +8516,11 @@
       </c>
     </row>
     <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B454" t="inlineStr">
         <is>
           <t>Tzompantepec</t>
@@ -6404,6 +8534,11 @@
       </c>
     </row>
     <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B455" t="inlineStr">
         <is>
           <t>Xaltocan</t>
@@ -6417,6 +8552,11 @@
       </c>
     </row>
     <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B456" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6448,6 +8588,11 @@
       </c>
     </row>
     <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B458" t="inlineStr">
         <is>
           <t>Alvarado</t>
@@ -6461,6 +8606,11 @@
       </c>
     </row>
     <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B459" t="inlineStr">
         <is>
           <t>Amatitlán</t>
@@ -6474,6 +8624,11 @@
       </c>
     </row>
     <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B460" t="inlineStr">
         <is>
           <t>Apazapan</t>
@@ -6487,6 +8642,11 @@
       </c>
     </row>
     <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B461" t="inlineStr">
         <is>
           <t>Cazones De Herrera</t>
@@ -6500,6 +8660,11 @@
       </c>
     </row>
     <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B462" t="inlineStr">
         <is>
           <t>Chacaltianguis</t>
@@ -6513,6 +8678,11 @@
       </c>
     </row>
     <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B463" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -6526,6 +8696,11 @@
       </c>
     </row>
     <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B464" t="inlineStr">
         <is>
           <t>Comapa</t>
@@ -6539,6 +8714,11 @@
       </c>
     </row>
     <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B465" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -6552,6 +8732,11 @@
       </c>
     </row>
     <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B466" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -6565,6 +8750,11 @@
       </c>
     </row>
     <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B467" t="inlineStr">
         <is>
           <t>Coxquihui</t>
@@ -6578,6 +8768,11 @@
       </c>
     </row>
     <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B468" t="inlineStr">
         <is>
           <t>Cuitláhuac</t>
@@ -6591,6 +8786,11 @@
       </c>
     </row>
     <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr">
         <is>
           <t>Espinal</t>
@@ -6604,6 +8804,11 @@
       </c>
     </row>
     <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B470" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -6617,6 +8822,11 @@
       </c>
     </row>
     <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B471" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -6630,6 +8840,11 @@
       </c>
     </row>
     <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B472" t="inlineStr">
         <is>
           <t>Isla</t>
@@ -6643,6 +8858,11 @@
       </c>
     </row>
     <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B473" t="inlineStr">
         <is>
           <t>Ixhuatlán Del Sureste</t>
@@ -6656,6 +8876,11 @@
       </c>
     </row>
     <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B474" t="inlineStr">
         <is>
           <t>Ixmatlahuacan</t>
@@ -6669,6 +8894,11 @@
       </c>
     </row>
     <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B475" t="inlineStr">
         <is>
           <t>Jalacingo</t>
@@ -6682,6 +8912,11 @@
       </c>
     </row>
     <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B476" t="inlineStr">
         <is>
           <t>Jalcomulco</t>
@@ -6695,6 +8930,11 @@
       </c>
     </row>
     <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B477" t="inlineStr">
         <is>
           <t>Jamapa</t>
@@ -6708,6 +8948,11 @@
       </c>
     </row>
     <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B478" t="inlineStr">
         <is>
           <t>La Antigua</t>
@@ -6721,6 +8966,11 @@
       </c>
     </row>
     <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B479" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -6734,6 +8984,11 @@
       </c>
     </row>
     <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B480" t="inlineStr">
         <is>
           <t>Manlio Fabio Altamirano</t>
@@ -6747,6 +9002,11 @@
       </c>
     </row>
     <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B481" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -6760,6 +9020,11 @@
       </c>
     </row>
     <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B482" t="inlineStr">
         <is>
           <t>Mecayapan</t>
@@ -6773,6 +9038,11 @@
       </c>
     </row>
     <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B483" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -6786,6 +9056,11 @@
       </c>
     </row>
     <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B484" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -6799,6 +9074,11 @@
       </c>
     </row>
     <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B485" t="inlineStr">
         <is>
           <t>Omealca</t>
@@ -6812,6 +9092,11 @@
       </c>
     </row>
     <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B486" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -6825,6 +9110,11 @@
       </c>
     </row>
     <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B487" t="inlineStr">
         <is>
           <t>Pánuco</t>
@@ -6838,6 +9128,11 @@
       </c>
     </row>
     <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B488" t="inlineStr">
         <is>
           <t>Paso Del Macho</t>
@@ -6851,6 +9146,11 @@
       </c>
     </row>
     <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B489" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -6864,6 +9164,11 @@
       </c>
     </row>
     <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B490" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -6877,6 +9182,11 @@
       </c>
     </row>
     <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B491" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -6890,6 +9200,11 @@
       </c>
     </row>
     <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B492" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -6903,6 +9218,11 @@
       </c>
     </row>
     <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B493" t="inlineStr">
         <is>
           <t>Santiago Tuxtla</t>
@@ -6916,6 +9236,11 @@
       </c>
     </row>
     <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B494" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -6929,6 +9254,11 @@
       </c>
     </row>
     <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B495" t="inlineStr">
         <is>
           <t>Tantoyuca</t>
@@ -6942,6 +9272,11 @@
       </c>
     </row>
     <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B496" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -6955,6 +9290,11 @@
       </c>
     </row>
     <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B497" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -6968,6 +9308,11 @@
       </c>
     </row>
     <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B498" t="inlineStr">
         <is>
           <t>Tlacotalpan</t>
@@ -6981,6 +9326,11 @@
       </c>
     </row>
     <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B499" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -6994,6 +9344,11 @@
       </c>
     </row>
     <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B500" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -7007,6 +9362,11 @@
       </c>
     </row>
     <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B501" t="inlineStr">
         <is>
           <t>Tres Valles</t>
@@ -7020,6 +9380,11 @@
       </c>
     </row>
     <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B502" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -7033,6 +9398,11 @@
       </c>
     </row>
     <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B503" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -7046,6 +9416,11 @@
       </c>
     </row>
     <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B504" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -7059,6 +9434,11 @@
       </c>
     </row>
     <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B505" t="inlineStr">
         <is>
           <t>Yanga</t>
@@ -7072,6 +9452,11 @@
       </c>
     </row>
     <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B506" t="inlineStr">
         <is>
           <t>Zentla</t>
@@ -7085,6 +9470,11 @@
       </c>
     </row>
     <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B507" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7116,6 +9506,11 @@
       </c>
     </row>
     <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B509" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7147,6 +9542,11 @@
       </c>
     </row>
     <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B511" t="inlineStr">
         <is>
           <t>Río Grande</t>
@@ -7160,6 +9560,11 @@
       </c>
     </row>
     <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B512" t="inlineStr">
         <is>
           <t>Sain Alto</t>
@@ -7173,6 +9578,11 @@
       </c>
     </row>
     <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B513" t="inlineStr">
         <is>
           <t>Villanueva</t>
@@ -7186,6 +9596,11 @@
       </c>
     </row>
     <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B514" t="inlineStr">
         <is>
           <t>Total</t>
